--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2850,6 +2850,67 @@
         <v>1</v>
       </c>
       <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>94</v>
+      </c>
+      <c r="E40" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>18</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J40" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>106</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N40" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>111</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2891,11 +2952,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2904,24 +2965,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2930,11 +2991,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -2943,11 +3004,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2956,50 +3017,50 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3008,11 +3069,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3021,24 +3082,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3047,50 +3108,50 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3099,11 +3160,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3112,11 +3173,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3125,11 +3186,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3138,33 +3199,33 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3177,24 +3238,24 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3203,50 +3264,50 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3255,11 +3316,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3268,24 +3329,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3294,11 +3355,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3307,11 +3368,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3320,37 +3381,37 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3359,11 +3420,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3372,24 +3433,24 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3398,11 +3459,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3411,53 +3472,40 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +2912,67 @@
       </c>
       <c r="S40" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>116</v>
+      </c>
+      <c r="E41" t="n">
+        <v>102</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="G41" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.372</v>
+      </c>
+      <c r="J41" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>107</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="N41" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2952,24 +3013,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2978,11 +3039,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2991,11 +3052,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3004,50 +3065,50 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3056,11 +3117,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3069,24 +3130,24 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3095,50 +3156,50 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3147,11 +3208,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3160,11 +3221,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3173,11 +3234,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3186,33 +3247,33 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3225,24 +3286,24 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3251,50 +3312,50 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3303,11 +3364,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3316,24 +3377,24 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3342,11 +3403,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3355,11 +3416,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3368,37 +3429,37 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3407,11 +3468,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3420,24 +3481,24 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3446,11 +3507,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3459,53 +3520,40 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2972,6 +2972,189 @@
         <v>1</v>
       </c>
       <c r="S41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>103</v>
+      </c>
+      <c r="E42" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>118</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="N42" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>122.2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>96</v>
+      </c>
+      <c r="E43" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="G43" t="n">
+        <v>15</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J43" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>125</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>31</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>108</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13</v>
+      </c>
+      <c r="H44" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="J44" t="n">
+        <v>115.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>100</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="N44" t="n">
+        <v>16</v>
+      </c>
+      <c r="O44" t="n">
+        <v>30</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>107.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,11 +3196,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45309</v>
+        <v>45315</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3026,24 +3209,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45311</v>
+        <v>45317</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45319</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3052,24 +3235,24 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45317</v>
+        <v>45323</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3078,50 +3261,50 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45319</v>
+        <v>45324</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45320</v>
+        <v>45326</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45323</v>
+        <v>45328</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3130,11 +3313,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3143,24 +3326,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,24 +3352,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45345</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3195,11 +3378,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45348</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3208,24 +3391,24 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45345</v>
+        <v>45352</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3234,11 +3417,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45348</v>
+        <v>45353</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3247,11 +3430,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45350</v>
+        <v>45355</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,24 +3443,24 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45357</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45353</v>
+        <v>45359</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3286,11 +3469,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45355</v>
+        <v>45361</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,24 +3482,24 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45357</v>
+        <v>45363</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45359</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3325,7 +3508,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45361</v>
+        <v>45367</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3333,55 +3516,55 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45363</v>
+        <v>45369</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45367</v>
+        <v>45373</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3390,24 +3573,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45371</v>
+        <v>45378</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45373</v>
+        <v>45381</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3416,11 +3599,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,76 +3612,76 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45381</v>
+        <v>45387</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45383</v>
+        <v>45388</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45385</v>
+        <v>45391</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45392</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45388</v>
+        <v>45394</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3507,53 +3690,14 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45396</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3155,6 +3155,67 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>105</v>
+      </c>
+      <c r="E45" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>96</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,7 +3230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,50 +3257,50 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45317</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45319</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3248,11 +3309,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3261,24 +3322,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3287,50 +3348,50 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3339,11 +3400,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3352,11 +3413,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3365,11 +3426,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3378,33 +3439,33 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3417,24 +3478,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3443,50 +3504,50 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3495,11 +3556,11 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3508,24 +3569,24 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3534,11 +3595,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3547,11 +3608,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3560,37 +3621,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3599,11 +3660,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3612,24 +3673,24 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3638,11 +3699,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,53 +3712,40 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3217,6 +3220,128 @@
       </c>
       <c r="S45" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>107</v>
+      </c>
+      <c r="E46" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12</v>
+      </c>
+      <c r="H46" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J46" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>106</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O46" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>110</v>
+      </c>
+      <c r="E47" t="n">
+        <v>94</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G47" t="n">
+        <v>12</v>
+      </c>
+      <c r="H47" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J47" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>116</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N47" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O47" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,496 +3381,470 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45381</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>ORL</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45319</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45388</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45353</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45361</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45363</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>DEN</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45381</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45388</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="C47" t="n">
@@ -3341,6 +3341,67 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>94</v>
+      </c>
+      <c r="E48" t="n">
+        <v>95</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>103</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="N48" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,11 +3443,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3395,11 +3456,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,24 +3469,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3434,50 +3495,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3486,11 +3547,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3499,11 +3560,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3512,11 +3573,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3525,33 +3586,33 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3564,24 +3625,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3590,50 +3651,50 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3642,11 +3703,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3655,24 +3716,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,11 +3742,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3694,11 +3755,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3707,37 +3768,37 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,11 +3807,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3759,24 +3820,24 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3785,11 +3846,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,53 +3859,40 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,6 +3402,128 @@
         <v>1</v>
       </c>
       <c r="S48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>101</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J49" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>108</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="N49" t="n">
+        <v>13</v>
+      </c>
+      <c r="O49" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>101</v>
+      </c>
+      <c r="E50" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="J50" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>121</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,50 +3565,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45323</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45328</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3495,11 +3617,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,24 +3630,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3534,11 +3656,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,11 +3669,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45337</v>
+        <v>45348</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3560,24 +3682,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45348</v>
+        <v>45352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3586,63 +3708,63 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45353</v>
+        <v>45357</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45355</v>
+        <v>45359</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45357</v>
+        <v>45361</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,11 +3773,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3664,24 +3786,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45363</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3690,37 +3812,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45369</v>
+        <v>45373</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,11 +3851,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3742,24 +3864,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45381</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,24 +3890,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45381</v>
+        <v>45385</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,7 +3916,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3802,29 +3924,29 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45388</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3833,24 +3955,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3859,40 +3981,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C50" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3524,6 +3524,67 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>91</v>
+      </c>
+      <c r="E51" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J51" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>131</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,11 +3626,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3578,50 +3639,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3630,11 +3691,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,11 +3704,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3656,11 +3717,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3669,33 +3730,33 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3708,24 +3769,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3734,50 +3795,50 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3786,11 +3847,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3799,24 +3860,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3825,11 +3886,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3838,11 +3899,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3851,37 +3912,37 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,11 +3951,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3903,24 +3964,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3929,11 +3990,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3942,53 +4003,40 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C51" t="n">
@@ -3585,6 +3585,67 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>113</v>
+      </c>
+      <c r="E52" t="n">
+        <v>95</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J52" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>123</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="N52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,50 +3687,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3678,11 +3739,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,11 +3752,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3704,11 +3765,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,33 +3778,33 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3756,24 +3817,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3782,50 +3843,50 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3834,11 +3895,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3847,24 +3908,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,11 +3934,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3886,11 +3947,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3899,37 +3960,37 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,11 +3999,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3951,24 +4012,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3977,11 +4038,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,53 +4051,40 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="C52" t="n">
@@ -3646,6 +3646,67 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>110</v>
+      </c>
+      <c r="E53" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>118</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,37 +3748,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3726,11 +3787,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3739,11 +3800,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3752,11 +3813,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,33 +3826,33 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3804,24 +3865,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3830,50 +3891,50 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3882,11 +3943,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,24 +3956,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,11 +3982,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3934,11 +3995,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3947,37 +4008,37 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,11 +4047,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3999,24 +4060,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4025,11 +4086,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,53 +4099,40 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="C53" t="n">
@@ -3707,6 +3707,67 @@
         <v>1</v>
       </c>
       <c r="S53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>106</v>
+      </c>
+      <c r="E54" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="G54" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J54" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>115</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="N54" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,24 +3809,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3774,11 +3835,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3787,11 +3848,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3800,11 +3861,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3813,33 +3874,33 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3852,24 +3913,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3878,50 +3939,50 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3930,11 +3991,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3943,24 +4004,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3969,11 +4030,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3982,11 +4043,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3995,37 +4056,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,11 +4095,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4047,24 +4108,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4073,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,53 +4147,40 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>87</v>
+      </c>
+      <c r="E55" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>96</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,11 +3870,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3822,11 +3883,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,11 +3896,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3848,11 +3909,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,33 +3922,33 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3900,24 +3961,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3926,50 +3987,50 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3978,11 +4039,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3991,24 +4052,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,11 +4078,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4030,11 +4091,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4043,37 +4104,37 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,11 +4143,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4095,24 +4156,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4121,11 +4182,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,53 +4195,40 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3830,6 +3830,67 @@
       </c>
       <c r="S55" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>121</v>
+      </c>
+      <c r="E56" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="G56" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>19</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="J56" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>113</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,11 +3944,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3896,11 +3957,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,33 +3970,33 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -3948,24 +4009,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3974,50 +4035,50 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4026,11 +4087,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4039,24 +4100,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,11 +4126,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4078,11 +4139,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4091,37 +4152,37 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,11 +4191,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4143,24 +4204,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4169,11 +4230,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,53 +4243,40 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">
@@ -3890,6 +3890,67 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45337</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>113</v>
+      </c>
+      <c r="E57" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G57" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J57" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>110</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>25</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,11 +3992,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3944,11 +4005,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,33 +4018,33 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3996,24 +4057,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4022,50 +4083,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4074,11 +4135,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4087,24 +4148,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,11 +4174,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4126,11 +4187,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4139,37 +4200,37 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,11 +4239,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4191,24 +4252,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4217,11 +4278,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,53 +4291,40 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45337</v>
       </c>
       <c r="C57" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3952,6 +3952,67 @@
       </c>
       <c r="S57" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>95</v>
+      </c>
+      <c r="E58" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G58" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J58" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>101</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="N58" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,33 +4066,33 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4044,24 +4105,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4070,50 +4131,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4122,11 +4183,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4135,24 +4196,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,11 +4222,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4174,11 +4235,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4187,37 +4248,37 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,11 +4287,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4239,24 +4300,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4265,11 +4326,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,53 +4339,40 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,6 +4012,67 @@
         <v>1</v>
       </c>
       <c r="S58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>86</v>
+      </c>
+      <c r="E59" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G59" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>111</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O59" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,33 +4114,33 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4092,24 +4153,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4118,50 +4179,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4170,11 +4231,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4183,24 +4244,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,11 +4270,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4222,11 +4283,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4235,37 +4296,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,11 +4335,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4287,24 +4348,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4313,11 +4374,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,53 +4387,40 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45348</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,67 @@
         <v>1</v>
       </c>
       <c r="S59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>101</v>
+      </c>
+      <c r="E60" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>110</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="N60" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="O60" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>115.9</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,20 +4175,20 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4140,24 +4201,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4166,50 +4227,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4218,11 +4279,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4231,24 +4292,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,11 +4318,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4270,11 +4331,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4283,37 +4344,37 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,11 +4383,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4335,24 +4396,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4361,11 +4422,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,53 +4435,40 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4134,6 +4134,67 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D61" t="n">
+        <v>92</v>
+      </c>
+      <c r="E61" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G61" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J61" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>122</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="N61" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,7 +4236,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4188,24 +4249,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4214,50 +4275,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4266,11 +4327,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4279,24 +4340,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,11 +4366,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4318,11 +4379,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4331,37 +4392,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,11 +4431,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4383,24 +4444,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4409,11 +4470,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,53 +4483,40 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="C61" t="n">
@@ -4195,6 +4195,67 @@
         <v>1</v>
       </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="G62" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="J62" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>107</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="N62" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="O62" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,24 +4297,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45353</v>
+        <v>45355</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4262,50 +4323,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4314,11 +4375,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4327,24 +4388,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,11 +4414,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4366,11 +4427,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4379,37 +4440,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,11 +4479,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4431,24 +4492,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4457,11 +4518,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,53 +4531,40 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45353</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4257,6 +4257,67 @@
       </c>
       <c r="S62" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>106</v>
+      </c>
+      <c r="E63" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>117</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>102</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,11 +4358,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4310,50 +4371,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4362,11 +4423,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4375,24 +4436,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,11 +4462,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4414,11 +4475,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4427,37 +4488,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,11 +4527,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4479,24 +4540,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4505,11 +4566,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,53 +4579,40 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45355</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>115</v>
+      </c>
+      <c r="E64" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>116</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>109</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,50 +4419,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4410,11 +4471,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4423,24 +4484,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,11 +4510,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4462,11 +4523,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4475,37 +4536,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,11 +4575,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4527,24 +4588,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4553,11 +4614,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,53 +4627,40 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45357</v>
       </c>
       <c r="C64" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4379,6 +4379,67 @@
       </c>
       <c r="S64" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>92</v>
+      </c>
+      <c r="E65" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13</v>
+      </c>
+      <c r="H65" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="J65" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>99</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13</v>
+      </c>
+      <c r="O65" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,37 +4480,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45359</v>
+        <v>45361</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4458,11 +4519,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4471,24 +4532,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,11 +4558,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4510,11 +4571,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4523,37 +4584,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,11 +4623,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4575,24 +4636,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4601,11 +4662,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,53 +4675,40 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C65" t="n">
@@ -4439,6 +4439,67 @@
         <v>1</v>
       </c>
       <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45361</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>93</v>
+      </c>
+      <c r="E66" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="G66" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>124</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,24 +4541,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45361</v>
+        <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4506,11 +4567,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4519,24 +4580,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,11 +4606,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4558,11 +4619,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4571,37 +4632,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,11 +4671,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4623,24 +4684,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4649,11 +4710,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,53 +4723,40 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45361</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>109</v>
+      </c>
+      <c r="E67" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J67" t="n">
+        <v>113</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>97</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="N67" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="O67" t="n">
+        <v>10</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,11 +4602,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4554,11 +4615,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4567,24 +4628,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,11 +4654,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4606,11 +4667,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4619,37 +4680,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,11 +4719,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4671,24 +4732,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4697,11 +4758,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,53 +4771,40 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45363</v>
       </c>
       <c r="C67" t="n">
@@ -4562,6 +4562,67 @@
       </c>
       <c r="S67" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>98</v>
+      </c>
+      <c r="E68" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G68" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H68" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J68" t="n">
+        <v>102</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>110</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="N68" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="O68" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,11 +4663,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4615,24 +4676,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,11 +4702,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4654,11 +4715,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4667,37 +4728,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4767,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,24 +4780,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4745,11 +4806,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,53 +4819,40 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C68" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,6 +4622,128 @@
         <v>1</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>112</v>
+      </c>
+      <c r="E69" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J69" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>118</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="N69" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O69" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>111</v>
+      </c>
+      <c r="E70" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="G70" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H70" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="J70" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>121</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N70" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O70" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4785,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45369</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,11 +4811,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45371</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4702,24 +4824,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45373</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45381</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,24 +4850,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45381</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,7 +4876,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4762,29 +4884,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45385</v>
+        <v>45388</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4793,24 +4915,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45388</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4819,40 +4941,14 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C69" t="n">
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="C70" t="n">
@@ -4744,6 +4744,67 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>116</v>
+      </c>
+      <c r="E71" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="G71" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J71" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>137</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>31</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,11 +4846,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4798,11 +4859,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4811,37 +4872,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,11 +4911,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4863,24 +4924,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4889,11 +4950,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,53 +4963,40 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45371</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4806,6 +4806,67 @@
       </c>
       <c r="S71" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>99</v>
+      </c>
+      <c r="E72" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="G72" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>18</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J72" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>97</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="N72" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O72" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,11 +4907,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4859,37 +4920,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,11 +4959,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4911,24 +4972,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4937,11 +4998,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,53 +5011,40 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45373</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,6 +4867,67 @@
       </c>
       <c r="S72" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>103</v>
+      </c>
+      <c r="E73" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="G73" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="J73" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>128</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="N73" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O73" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,37 +4968,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,11 +5007,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4959,24 +5020,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4985,11 +5046,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,53 +5059,40 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C73" t="n">

--- a/data/CurrentSeason/MEM.xlsx
+++ b/data/CurrentSeason/MEM.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4927,6 +4927,67 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>124</v>
+      </c>
+      <c r="E74" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>25</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="J74" t="n">
+        <v>118.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>136</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="N74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4968,24 +5029,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4994,11 +5055,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -5007,24 +5068,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45387</v>
+        <v>45388</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -5033,11 +5094,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -5046,53 +5107,40 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
